--- a/documentation/ProposalContentParts-Crib-Management-System.xlsx
+++ b/documentation/ProposalContentParts-Crib-Management-System.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Submission Date</t>
   </si>
@@ -77,18 +77,21 @@
     <t xml:space="preserve">50 word problem statement</t>
   </si>
   <si>
-    <t xml:space="preserve">the slow and tedious system in place for lending electronics from the parts crib to students. The process requires the use of large amounts of paper each day and it is difficult for the parts crib to track important trends such as which items are requested the most at certain times.</t>
+    <t xml:space="preserve">Problem: The slow and tedious system in place for lending electronics from the parts crib to students. The process requires the use of large amounts of paper each day and it is difficult for the parts crib to track important trends such as which items are being requested the most at certain times.</t>
   </si>
   <si>
     <t xml:space="preserve">100 words of background</t>
   </si>
   <si>
-    <t xml:space="preserve">that it’s not a rare occurrence for items to missing at the parts crib and the time required to track down which student didn’t return an item is costly. The collection of student information and the ability to dynamically view </t>
+    <t xml:space="preserve">It’s not a rare occurrence for items to missing at the parts crib and the time required to track down which student didn’t return an item is costly. The goal of this project is to implement a system that will allow the parts crib to keep an electronic catalogue of items loaned out to students. Students will be able to use a mobile android-based application to see what items are available and to request them using their student credentials.</t>
   </si>
   <si>
     <t xml:space="preserve">Current product APA citation</t>
   </si>
   <si>
+    <t xml:space="preserve">(2018, November 16). Modis Lock. Retrieved from https://modis.io/modis-lock/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Existing research IEEE paper APA citation</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">Solution description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students will use a RFID reader to scan a tag placed on their card along. They will then input a randomly-generated 4 digit number generated using a phone app. The app will only work when used on the Humber network. Thus, there is no requirement to verify student identity manually at the part crib as the code was generated on password-protected phone (mandated by my-wifi@humber).</t>
   </si>
 </sst>
 </file>
@@ -222,13 +228,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="69.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="8.71"/>
   </cols>
   <sheetData>
@@ -280,7 +286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -304,7 +310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -312,7 +318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -320,32 +326,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="129.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://github.com/c3ko/SecondFactorKeypad"/>
+    <hyperlink ref="B12" r:id="rId2" display="https://modis.io/modis-lock/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
@@ -474,15 +487,15 @@
       </c>
       <c r="J2" s="1" t="str">
         <f aca="false">DataEntry!B10</f>
-        <v>the slow and tedious system in place for lending electronics from the parts crib to students. The process requires the use of large amounts of paper each day and it is difficult for the parts crib to track important trends such as which items are requested the most at certain times.</v>
+        <v>Problem: The slow and tedious system in place for lending electronics from the parts crib to students. The process requires the use of large amounts of paper each day and it is difficult for the parts crib to track important trends such as which items are being requested the most at certain times.</v>
       </c>
       <c r="K2" s="1" t="str">
         <f aca="false">DataEntry!B11</f>
-        <v>that it’s not a rare occurrence for items to missing at the parts crib and the time required to track down which student didn’t return an item is costly. The collection of student information and the ability to dynamically view </v>
-      </c>
-      <c r="L2" s="1" t="n">
+        <v>It’s not a rare occurrence for items to missing at the parts crib and the time required to track down which student didn’t return an item is costly. The goal of this project is to implement a system that will allow the parts crib to keep an electronic catalogue of items loaned out to students. Students will be able to use a mobile android-based application to see what items are available and to request them using their student credentials.</v>
+      </c>
+      <c r="L2" s="1" t="str">
         <f aca="false">DataEntry!B12</f>
-        <v>0</v>
+        <v>(2018, November 16). Modis Lock. Retrieved from https://modis.io/modis-lock/</v>
       </c>
       <c r="M2" s="1" t="n">
         <f aca="false">DataEntry!B13</f>
@@ -492,9 +505,9 @@
         <f aca="false">DataEntry!B14</f>
         <v>COM-14662 12-Button KeyPad, RC522 RFID reader, stm32f103c8t6, GPS sensor, Raspberry Pi</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1" t="str">
         <f aca="false">DataEntry!B15</f>
-        <v>0</v>
+        <v>Students will use a RFID reader to scan a tag placed on their card along. They will then input a randomly-generated 4 digit number generated using a phone app. The app will only work when used on the Humber network. Thus, there is no requirement to verify student identity manually at the part crib as the code was generated on password-protected phone (mandated by my-wifi@humber).</v>
       </c>
     </row>
   </sheetData>
